--- a/public/individual_gi.xlsx
+++ b/public/individual_gi.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-640" yWindow="0" windowWidth="25600" windowHeight="14880" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="24720" windowHeight="16720"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
     <sheet name="査証人名簿" sheetId="2" r:id="rId2"/>
     <sheet name="滞在予定表" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -24,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>日本旅行社名</t>
   </si>
@@ -251,10 +248,6 @@
     <phoneticPr fontId="21"/>
   </si>
   <si>
-    <t>1501-001</t>
-    <phoneticPr fontId="21"/>
-  </si>
-  <si>
     <t>関　理江</t>
     <phoneticPr fontId="21"/>
   </si>
@@ -262,12 +255,19 @@
     <t>〒310-0067茨城県水戸市根本2-780 星野ビル 202号室</t>
     <phoneticPr fontId="21"/>
   </si>
+  <si>
+    <t>1510-001</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -394,14 +394,14 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
-      <color theme="11"/>
+      <color indexed="20"/>
       <name val="宋体"/>
     </font>
   </fonts>
@@ -495,10 +495,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="48">
@@ -603,14 +602,13 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
       <color rgb="FF969696"/>
@@ -784,34 +782,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="基本信息"/>
-      <sheetName val="査証人名簿"/>
-      <sheetName val="滞在予定表"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="10">
-          <cell r="C10">
-            <v>43079</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>43094</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1100,14 +1070,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:G986"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
@@ -1301,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1314,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1379,7 +1349,7 @@
         <v>39</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -8139,9 +8109,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -8149,14 +8118,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
@@ -14313,7 +14282,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -14321,14 +14290,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:C1003"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
@@ -14372,7 +14341,6 @@
     </row>
     <row r="5" spans="1:3" ht="42" customHeight="1">
       <c r="A5" s="16">
-        <f>IF(AND(LEN([1]基本信息!C10),LEN([1]基本信息!C10)),[1]基本信息!C10,"")</f>
         <v>43079</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -14384,7 +14352,6 @@
     </row>
     <row r="6" spans="1:3" ht="44.25" customHeight="1">
       <c r="A6" s="16">
-        <f>IF(LEN(A5),IF(A5+1&lt;=[1]基本信息!C11,A5+1,""),"")</f>
         <v>43080</v>
       </c>
       <c r="B6" s="17" t="s">
@@ -14396,7 +14363,6 @@
     </row>
     <row r="7" spans="1:3" ht="44.25" customHeight="1">
       <c r="A7" s="16">
-        <f>IF(LEN(A5),IF(A5+2&lt;=[1]基本信息!C11,A5+2,""),"")</f>
         <v>43081</v>
       </c>
       <c r="B7" s="18"/>
@@ -14404,7 +14370,6 @@
     </row>
     <row r="8" spans="1:3" ht="44.25" customHeight="1">
       <c r="A8" s="16">
-        <f>IF(LEN(A5),IF(A5+3&lt;=[1]基本信息!C11,A5+3,""),"")</f>
         <v>43082</v>
       </c>
       <c r="B8" s="18"/>
@@ -14412,7 +14377,6 @@
     </row>
     <row r="9" spans="1:3" ht="42" customHeight="1">
       <c r="A9" s="16">
-        <f>IF(LEN(A5),IF(A5+4&lt;=[1]基本信息!C11,A5+4,""),"")</f>
         <v>43083</v>
       </c>
       <c r="B9" s="18"/>
@@ -14420,7 +14384,6 @@
     </row>
     <row r="10" spans="1:3" ht="42" customHeight="1">
       <c r="A10" s="16">
-        <f>IF(LEN(A5),IF(A5+5&lt;=[1]基本信息!C11,A5+5,""),"")</f>
         <v>43084</v>
       </c>
       <c r="B10" s="18"/>
@@ -14428,7 +14391,6 @@
     </row>
     <row r="11" spans="1:3" ht="46.5" customHeight="1">
       <c r="A11" s="16">
-        <f>IF(LEN(A5),IF(A5+6&lt;=[1]基本信息!C11,A5+6,""),"")</f>
         <v>43085</v>
       </c>
       <c r="B11" s="18"/>
@@ -14436,7 +14398,6 @@
     </row>
     <row r="12" spans="1:3" ht="47.25" customHeight="1">
       <c r="A12" s="16">
-        <f>IF(LEN(A5),IF(A5+7&lt;=[1]基本信息!C11,A5+7,""),"")</f>
         <v>43086</v>
       </c>
       <c r="B12" s="18"/>
@@ -14444,7 +14405,6 @@
     </row>
     <row r="13" spans="1:3" ht="41.25" customHeight="1">
       <c r="A13" s="16">
-        <f>IF(LEN(A5),IF(A5+8&lt;=[1]基本信息!C11,A5+8,""),"")</f>
         <v>43087</v>
       </c>
       <c r="B13" s="18"/>
@@ -14452,7 +14412,6 @@
     </row>
     <row r="14" spans="1:3" ht="42" customHeight="1">
       <c r="A14" s="16">
-        <f>IF(LEN(A5),IF(A5+9&lt;=[1]基本信息!C11,A5+9,""),"")</f>
         <v>43088</v>
       </c>
       <c r="B14" s="18"/>
@@ -14460,7 +14419,6 @@
     </row>
     <row r="15" spans="1:3" ht="42" customHeight="1">
       <c r="A15" s="16">
-        <f>IF(LEN(A5),IF(A5+10&lt;=[1]基本信息!C11,A5+10,""),"")</f>
         <v>43089</v>
       </c>
       <c r="B15" s="18"/>
@@ -14468,7 +14426,6 @@
     </row>
     <row r="16" spans="1:3" ht="39.75" customHeight="1">
       <c r="A16" s="16">
-        <f>IF(LEN(A5),IF(A5+11&lt;=[1]基本信息!C11,A5+11,""),"")</f>
         <v>43090</v>
       </c>
       <c r="B16" s="18"/>
@@ -14476,7 +14433,6 @@
     </row>
     <row r="17" spans="1:3" ht="39.75" customHeight="1">
       <c r="A17" s="16">
-        <f>IF(LEN(A5),IF(A5+12&lt;=[1]基本信息!C11,A5+12,""),"")</f>
         <v>43091</v>
       </c>
       <c r="B17" s="18"/>
@@ -14484,7 +14440,6 @@
     </row>
     <row r="18" spans="1:3" ht="39.75" customHeight="1">
       <c r="A18" s="16">
-        <f>IF(LEN(A5),IF(A5+13&lt;=[1]基本信息!C11,A5+13,""),"")</f>
         <v>43092</v>
       </c>
       <c r="B18" s="18"/>
@@ -14492,7 +14447,6 @@
     </row>
     <row r="19" spans="1:3" ht="40.5" customHeight="1">
       <c r="A19" s="16">
-        <f>IF(LEN(A5),IF(A5+14&lt;=[1]基本信息!C11,A5+14,""),"")</f>
         <v>43093</v>
       </c>
       <c r="B19" s="18"/>
@@ -14500,128 +14454,112 @@
     </row>
     <row r="20" spans="1:3" ht="39.75" customHeight="1">
       <c r="A20" s="16">
-        <f>IF(LEN(A5),IF(A5+15&lt;=[1]基本信息!C11,A5+15,""),"")</f>
         <v>43094</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" ht="41.25" customHeight="1">
-      <c r="A21" s="19" t="str">
-        <f>IF(LEN(A5),IF(A5+16&lt;=[1]基本信息!C11,A5+16,""),"")</f>
-        <v/>
+      <c r="A21" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" ht="40.5" customHeight="1">
-      <c r="A22" s="19" t="str">
-        <f>IF(LEN(A5),IF(A5+17&lt;=[1]基本信息!C11,A5+17,""),"")</f>
-        <v/>
+      <c r="A22" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
     </row>
     <row r="23" spans="1:3" ht="39" customHeight="1">
-      <c r="A23" s="19" t="str">
-        <f>IF(LEN(A5),IF(A5+18&lt;=[1]基本信息!C11,A5+18,""),"")</f>
-        <v/>
+      <c r="A23" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
     </row>
     <row r="24" spans="1:3" ht="40.5" customHeight="1">
-      <c r="A24" s="19" t="str">
-        <f>IF(LEN(A5),IF(A5+19&lt;=[1]基本信息!C11,A5+19,""),"")</f>
-        <v/>
+      <c r="A24" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
     </row>
     <row r="25" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A25" s="19" t="str">
-        <f>IF(LEN(A5),IF(A5+20&lt;=[1]基本信息!C11,A5+20,""),"")</f>
-        <v/>
+      <c r="A25" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A26" s="19" t="str">
-        <f>IF(LEN(A5),IF(A5+21&lt;=[1]基本信息!C11,A5+21,""),"")</f>
-        <v/>
+      <c r="A26" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:3" ht="39" customHeight="1">
-      <c r="A27" s="19" t="str">
-        <f>IF(LEN(A5),IF(A5+22&lt;=[1]基本信息!C11,A5+22,""),"")</f>
-        <v/>
+      <c r="A27" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
     </row>
     <row r="28" spans="1:3" ht="39" customHeight="1">
-      <c r="A28" s="19" t="str">
-        <f>IF(LEN(A5),IF(A5+23&lt;=[1]基本信息!C11,A5+23,""),"")</f>
-        <v/>
+      <c r="A28" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
     </row>
     <row r="29" spans="1:3" ht="39" customHeight="1">
-      <c r="A29" s="19" t="str">
-        <f>IF(LEN(A5),IF(A5+24&lt;=[1]基本信息!C11,A5+24,""),"")</f>
-        <v/>
+      <c r="A29" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
     </row>
     <row r="30" spans="1:3" ht="38.25" customHeight="1">
-      <c r="A30" s="19" t="str">
-        <f>IF(LEN(A5),IF(A5+25&lt;=[1]基本信息!C11,A5+25,""),"")</f>
-        <v/>
+      <c r="A30" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
     </row>
     <row r="31" spans="1:3" ht="39" customHeight="1">
-      <c r="A31" s="19" t="str">
-        <f>IF(LEN(A5),IF(A5+26&lt;=[1]基本信息!C11,A5+26,""),"")</f>
-        <v/>
+      <c r="A31" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
     </row>
     <row r="32" spans="1:3" ht="38.25" customHeight="1">
-      <c r="A32" s="19" t="str">
-        <f>IF(LEN(A5),IF(A5+27&lt;=[1]基本信息!C11,A5+27,""),"")</f>
-        <v/>
+      <c r="A32" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
     </row>
     <row r="33" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A33" s="19" t="str">
-        <f>IF(LEN(A5),IF(A5+28&lt;=[1]基本信息!C11,A5+28,""),"")</f>
-        <v/>
+      <c r="A33" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
     </row>
     <row r="34" spans="1:3" ht="39.5" customHeight="1">
-      <c r="A34" s="19" t="str">
-        <f>IF(LEN(A5),IF(A5+29&lt;=[1]基本信息!C11,A5+29,""),"")</f>
-        <v/>
+      <c r="A34" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
     </row>
     <row r="35" spans="1:3" ht="40.75" customHeight="1">
-      <c r="A35" s="20" t="str">
-        <f>IF(LEN(A5),IF(A5+30&lt;=[1]基本信息!C11,A5+30,""),"")</f>
-        <v/>
+      <c r="A35" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -19489,7 +19427,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
